--- a/data/trans_camb/P28B_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28B_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,39</t>
+          <t>-16,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,65</t>
+          <t>-20,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-25,06</t>
+          <t>-23,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-24,95</t>
+          <t>-22,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,7</t>
+          <t>-19,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,14</t>
+          <t>-28,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,48</t>
+          <t>-19,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-21,7</t>
+          <t>-20,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-26,35</t>
+          <t>-26,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,86; -8,47</t>
+          <t>-26,37; -5,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,17; -14,22</t>
+          <t>-30,19; -11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -17,34</t>
+          <t>-33,38; -13,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,3; -17,96</t>
+          <t>-31,82; -13,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,95; -14,69</t>
+          <t>-28,97; -10,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,47; -20,38</t>
+          <t>-37,71; -19,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -15,85</t>
+          <t>-27,12; -12,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,9; -16,22</t>
+          <t>-27,18; -13,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -20,93</t>
+          <t>-33,37; -19,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-44,15%</t>
+          <t>-44,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,95%</t>
+          <t>-54,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-63,6%</t>
+          <t>-61,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-49,9%</t>
+          <t>-43,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,4%</t>
+          <t>-38,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,28%</t>
+          <t>-54,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-47,58%</t>
+          <t>-43,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-48,06%</t>
+          <t>-44,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,36%</t>
+          <t>-58,01%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,52; -22,56</t>
+          <t>-62,2; -17,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,31; -39,65</t>
+          <t>-71,25; -33,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,62; -48,87</t>
+          <t>-77,41; -42,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,65; -38,01</t>
+          <t>-57,04; -28,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,56; -31,63</t>
+          <t>-52,09; -22,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,07; -43,68</t>
+          <t>-65,59; -40,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,26; -37,22</t>
+          <t>-55,48; -30,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,28; -38,64</t>
+          <t>-55,23; -30,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -49,48</t>
+          <t>-68,35; -47,35</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-18,91</t>
+          <t>-14,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,87</t>
+          <t>-14,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,02</t>
+          <t>-20,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,12</t>
+          <t>-29,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,02</t>
+          <t>-30,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,35</t>
+          <t>-14,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,98</t>
+          <t>-22,76</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-24,42</t>
+          <t>-23,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -4,48</t>
+          <t>-18,85; 4,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,71; -10,59</t>
+          <t>-25,87; -2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,52; -14,92</t>
+          <t>-24,71; -4,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,5; -13,56</t>
+          <t>-31,67; -10,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,6; -19,98</t>
+          <t>-39,73; -19,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,42; -17,99</t>
+          <t>-41,83; -20,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -12,02</t>
+          <t>-22,16; -5,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -18,22</t>
+          <t>-30,44; -15,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,2; -18,69</t>
+          <t>-31,08; -16,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-41,62%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-56,15%</t>
+          <t>-46,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-64,94%</t>
+          <t>-48,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-45,53%</t>
+          <t>-40,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-58,15%</t>
+          <t>-58,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,81%</t>
+          <t>-60,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-44,19%</t>
+          <t>-34,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-57,73%</t>
+          <t>-54,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-58,81%</t>
+          <t>-56,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,38; -14,25</t>
+          <t>-52,16; 21,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,78; -33,1</t>
+          <t>-70,5; -6,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,04; -48,57</t>
+          <t>-69,51; -18,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,79; -30,12</t>
+          <t>-56,79; -22,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,69; -44,84</t>
+          <t>-70,5; -41,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,44; -38,92</t>
+          <t>-73,3; -43,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,61; -30,95</t>
+          <t>-48,85; -15,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; -46,98</t>
+          <t>-66,42; -38,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,64; -47,07</t>
+          <t>-68,39; -41,49</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,5</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,04</t>
+          <t>-11,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-13,1</t>
+          <t>-15,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,39</t>
+          <t>-18,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,76</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-18,3</t>
+          <t>-14,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 20,37</t>
+          <t>-17,42; 58,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 4,67</t>
+          <t>-31,64; 22,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,31; -3,61</t>
+          <t>-37,26; 12,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 5,69</t>
+          <t>-32,68; 12,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 2,9</t>
+          <t>-38,1; 7,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,69; -2,7</t>
+          <t>-39,74; 2,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 8,29</t>
+          <t>-18,33; 29,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 1,05</t>
+          <t>-26,75; 9,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-29,05; -6,58</t>
+          <t>-30,91; 3,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,76%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,83%</t>
+          <t>-18,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>-43,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-26,05%</t>
+          <t>-26,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,09%</t>
+          <t>-34,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,92%</t>
+          <t>-41,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-22,52%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-36,68%</t>
+          <t>-28,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-53,09%</t>
+          <t>-42,3%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,26; 106,72</t>
+          <t>-53,22; 633,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,95; 28,71</t>
+          <t>-76,15; 173,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,23; -13,73</t>
+          <t>-87,47; 86,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,13; 17,85</t>
+          <t>-60,17; 41,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,32; 8,83</t>
+          <t>-70,03; 29,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,79; -6,6</t>
+          <t>-74,59; 10,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 31,12</t>
+          <t>-44,51; 132,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 0,81</t>
+          <t>-61,08; 38,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,16; -21,19</t>
+          <t>-69,96; 15,03</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,65</t>
+          <t>-9,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-19,49</t>
+          <t>-16,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-23,07</t>
+          <t>-18,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,34</t>
+          <t>-20,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-23,37</t>
+          <t>-23,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-25,74</t>
+          <t>-28,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-18,74</t>
+          <t>-15,47</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-21,64</t>
+          <t>-20,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-24,71</t>
+          <t>-24,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -7,38</t>
+          <t>-16,47; 1,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; -13,73</t>
+          <t>-23,08; -9,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -17,69</t>
+          <t>-25,46; -11,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -17,36</t>
+          <t>-28,58; -13,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,54; -18,29</t>
+          <t>-29,78; -15,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,61; -20,61</t>
+          <t>-35,22; -21,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -14,57</t>
+          <t>-21,04; -10,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -17,9</t>
+          <t>-25,43; -14,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -21,11</t>
+          <t>-28,97; -19,29</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,72%</t>
+          <t>-27,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,19%</t>
+          <t>-48,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>-55,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-46,23%</t>
+          <t>-41,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,37%</t>
+          <t>-46,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-53,26%</t>
+          <t>-56,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-47,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,09%</t>
+          <t>-56,21%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,66; -21,85</t>
+          <t>-44,59; 5,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,52; -41,39</t>
+          <t>-62,18; -28,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -52,69</t>
+          <t>-67,37; -37,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -37,26</t>
+          <t>-52,07; -29,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,03; -40,18</t>
+          <t>-55,37; -33,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,52; -45,11</t>
+          <t>-64,94; -45,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -35,13</t>
+          <t>-46,14; -24,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -43,91</t>
+          <t>-55,44; -37,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -51,34</t>
+          <t>-63,57; -47,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
